--- a/data/trans_orig/P33B4_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>75496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59578</v>
+        <v>58412</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92178</v>
+        <v>93276</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1516714036778605</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1196920108928329</v>
+        <v>0.1173503487053122</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1851846258437573</v>
+        <v>0.1873902333551004</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -762,19 +762,19 @@
         <v>157560</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137513</v>
+        <v>136946</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177825</v>
+        <v>176894</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2526704407828099</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2205225522674153</v>
+        <v>0.219612267067457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2851676424385861</v>
+        <v>0.2836743547681804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>311</v>
@@ -783,19 +783,19 @@
         <v>233056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>209927</v>
+        <v>206425</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>258606</v>
+        <v>260196</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2078371905407786</v>
+        <v>0.2078371905407785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1872109613636315</v>
+        <v>0.1840872117620074</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.230621933202207</v>
+        <v>0.2320399161172491</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>50331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39391</v>
+        <v>37312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65174</v>
+        <v>64285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.10111504065341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07913627460629055</v>
+        <v>0.07496052357685996</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1309334680978792</v>
+        <v>0.1291493014653891</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -833,19 +833,19 @@
         <v>77726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64109</v>
+        <v>64897</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92022</v>
+        <v>91502</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1246451913686722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1028075577279821</v>
+        <v>0.1040711369692859</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1475700749540546</v>
+        <v>0.1467366154876103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>178</v>
@@ -854,19 +854,19 @@
         <v>128057</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109542</v>
+        <v>110626</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148190</v>
+        <v>148719</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1142002092630124</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09768800385921794</v>
+        <v>0.09865488207743571</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1321541995042498</v>
+        <v>0.1326260958708531</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>70982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55418</v>
+        <v>56582</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>89358</v>
+        <v>90020</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1426016981847213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1113340151121377</v>
+        <v>0.1136729927446137</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.179520679686393</v>
+        <v>0.1808489010383309</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>170</v>
@@ -904,19 +904,19 @@
         <v>114218</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>98029</v>
+        <v>95617</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>132917</v>
+        <v>130877</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1831642722630562</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1572028524644994</v>
+        <v>0.15333600143212</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.213150872840413</v>
+        <v>0.2098801645644027</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>238</v>
@@ -925,19 +925,19 @@
         <v>185199</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>162359</v>
+        <v>162759</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>209794</v>
+        <v>210916</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1651586349199472</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1447897164876773</v>
+        <v>0.1451463562816867</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1870922913633779</v>
+        <v>0.1880930487905496</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>300952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>278653</v>
+        <v>275708</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>326339</v>
+        <v>322980</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6046118574840083</v>
+        <v>0.6046118574840081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5598124317598733</v>
+        <v>0.5538957302097891</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6556129176193866</v>
+        <v>0.6488659758012257</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>338</v>
@@ -975,19 +975,19 @@
         <v>274076</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>252300</v>
+        <v>249665</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>298267</v>
+        <v>299689</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4395200955854616</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4045994336565346</v>
+        <v>0.4003735326240733</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4783139908508204</v>
+        <v>0.4805936883315532</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>588</v>
@@ -996,19 +996,19 @@
         <v>575028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>541943</v>
+        <v>541763</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>609570</v>
+        <v>611423</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5128039652762618</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4832987218655524</v>
+        <v>0.4831385697221486</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5436077416916358</v>
+        <v>0.5452606031173757</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>80544</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>64711</v>
+        <v>65436</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>98248</v>
+        <v>100294</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08388756628439488</v>
+        <v>0.08388756628439489</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06739793832593642</v>
+        <v>0.06815238421248368</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1023269819205645</v>
+        <v>0.1044575202715846</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>219</v>
@@ -1121,19 +1121,19 @@
         <v>140923</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>124939</v>
+        <v>122009</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>160629</v>
+        <v>158365</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1263758548446436</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1120415286210267</v>
+        <v>0.1094141305348659</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1440476490658804</v>
+        <v>0.1420174915006786</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>314</v>
@@ -1142,19 +1142,19 @@
         <v>221466</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>196778</v>
+        <v>197853</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>252296</v>
+        <v>247968</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1067181505529903</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09482167721476677</v>
+        <v>0.09533974191192068</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1215742549141571</v>
+        <v>0.1194883725715047</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>65181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51254</v>
+        <v>51770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81970</v>
+        <v>81065</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06788713391708029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05338152582110595</v>
+        <v>0.05391965641510632</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08537298470400252</v>
+        <v>0.08443105966343319</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -1192,19 +1192,19 @@
         <v>130560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113227</v>
+        <v>113580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148413</v>
+        <v>149500</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1170828597523167</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1015391932862725</v>
+        <v>0.1018552895916681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.133092424690078</v>
+        <v>0.1340677679045005</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>278</v>
@@ -1213,19 +1213,19 @@
         <v>195741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172977</v>
+        <v>171069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>221298</v>
+        <v>223046</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0943218810531863</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08335268069939444</v>
+        <v>0.08243294561261086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.106636928565889</v>
+        <v>0.1074794451140275</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>154214</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130539</v>
+        <v>129286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181620</v>
+        <v>178492</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1606166522523362</v>
+        <v>0.1606166522523361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1359585663898189</v>
+        <v>0.1346540585945905</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1891600233151728</v>
+        <v>0.1859029262259645</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>358</v>
@@ -1263,19 +1263,19 @@
         <v>228669</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>205315</v>
+        <v>206979</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>254456</v>
+        <v>251239</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2050644655401253</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1841212174860117</v>
+        <v>0.1856130722761722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2281891128779676</v>
+        <v>0.225304672933978</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>516</v>
@@ -1284,19 +1284,19 @@
         <v>382883</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>352653</v>
+        <v>350261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>413057</v>
+        <v>416158</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1845001641848706</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1699328915705916</v>
+        <v>0.1687807009696843</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1990402042062988</v>
+        <v>0.2005341351376215</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>660199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>624422</v>
+        <v>631170</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>689058</v>
+        <v>692929</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6876086475461889</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6503466113379069</v>
+        <v>0.6573753257237516</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7176667501571509</v>
+        <v>0.721697897041624</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>826</v>
@@ -1334,19 +1334,19 @@
         <v>614957</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>583873</v>
+        <v>588364</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>643512</v>
+        <v>645151</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5514768198629144</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5236015112361413</v>
+        <v>0.5276288362299995</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5770841880375455</v>
+        <v>0.5785539033910555</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1408</v>
@@ -1355,19 +1355,19 @@
         <v>1275155</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1228006</v>
+        <v>1231838</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1316715</v>
+        <v>1319928</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6144598042089529</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5917399425536147</v>
+        <v>0.5935864594056034</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6344861324766756</v>
+        <v>0.6360342914227964</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>56609</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43430</v>
+        <v>42701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74066</v>
+        <v>74324</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05414606153432328</v>
+        <v>0.05414606153432327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04154003687423793</v>
+        <v>0.04084286408656435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0708429939189127</v>
+        <v>0.07109051722482942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>118</v>
@@ -1480,19 +1480,19 @@
         <v>80988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>66894</v>
+        <v>65975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96648</v>
+        <v>95618</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07733573015818228</v>
+        <v>0.07733573015818229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06387731693643355</v>
+        <v>0.06299933468227691</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09228966578967822</v>
+        <v>0.09130642985808209</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>182</v>
@@ -1501,19 +1501,19 @@
         <v>137597</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117525</v>
+        <v>117385</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160651</v>
+        <v>161108</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06575050853209724</v>
+        <v>0.06575050853209723</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05615881926508803</v>
+        <v>0.05609192220359885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07676658276645328</v>
+        <v>0.07698506429077365</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>62239</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>49494</v>
+        <v>48667</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>79834</v>
+        <v>82413</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05953041929067548</v>
+        <v>0.05953041929067549</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.047340302193506</v>
+        <v>0.04654975188013406</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07636053110970453</v>
+        <v>0.07882693644853131</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>142</v>
@@ -1551,19 +1551,19 @@
         <v>99097</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>83897</v>
+        <v>82262</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>119260</v>
+        <v>116356</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0946283683002859</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08011372464345266</v>
+        <v>0.07855241702850631</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1138820022699651</v>
+        <v>0.1111088323686528</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>210</v>
@@ -1572,19 +1572,19 @@
         <v>161336</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>141563</v>
+        <v>138430</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>186179</v>
+        <v>184402</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07709394275532513</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06764537786103074</v>
+        <v>0.06614837927195949</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08896498857531659</v>
+        <v>0.08811604945310783</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>142251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>121076</v>
+        <v>121934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166640</v>
+        <v>167816</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1360612290620896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1158079833185394</v>
+        <v>0.1166288983973311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1593888486031937</v>
+        <v>0.160514530870017</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>347</v>
@@ -1622,19 +1622,19 @@
         <v>212028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>190024</v>
+        <v>191390</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>235035</v>
+        <v>234047</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2024664112584763</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1814544311767047</v>
+        <v>0.1827588135841486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2244353232952418</v>
+        <v>0.2234925421288946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>508</v>
@@ -1643,19 +1643,19 @@
         <v>354279</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>325599</v>
+        <v>325429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>386480</v>
+        <v>389610</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1692913467353821</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1555866419643603</v>
+        <v>0.1555051913566263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1846782849855514</v>
+        <v>0.1861741099148871</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>784392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>752010</v>
+        <v>749084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>811781</v>
+        <v>811463</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7502622901129116</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7192892976829953</v>
+        <v>0.7164898821485591</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7764588863484569</v>
+        <v>0.7761549732042995</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>908</v>
@@ -1693,19 +1693,19 @@
         <v>655113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>624457</v>
+        <v>627512</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>679108</v>
+        <v>680797</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6255694902830554</v>
+        <v>0.6255694902830555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5962966199669203</v>
+        <v>0.5992137552097994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6484829627683983</v>
+        <v>0.6500955531779459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1643</v>
@@ -1714,19 +1714,19 @@
         <v>1439506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1400767</v>
+        <v>1398338</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1479427</v>
+        <v>1480591</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6878642019771956</v>
+        <v>0.6878642019771954</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6693527677725248</v>
+        <v>0.6681923137711981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7069406704691644</v>
+        <v>0.7074966581081182</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>38434</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25894</v>
+        <v>25704</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58543</v>
+        <v>56506</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03938232125731089</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02653233494313966</v>
+        <v>0.02633835594547091</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05998719407889042</v>
+        <v>0.05789921648338218</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -1839,19 +1839,19 @@
         <v>65482</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50626</v>
+        <v>52367</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79725</v>
+        <v>82934</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07209725278444715</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05574016010411088</v>
+        <v>0.05765729178156453</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0877782750755778</v>
+        <v>0.09131143597032329</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>116</v>
@@ -1860,19 +1860,19 @@
         <v>103917</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>84626</v>
+        <v>83678</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>129733</v>
+        <v>129130</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05515223789405214</v>
+        <v>0.05515223789405212</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04491420587931293</v>
+        <v>0.04441079377595102</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06885408070362756</v>
+        <v>0.06853373586800092</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>52924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39320</v>
+        <v>38381</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>76168</v>
+        <v>72160</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05422943743973083</v>
+        <v>0.05422943743973082</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04028955563984297</v>
+        <v>0.039328067363396</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07804715832114852</v>
+        <v>0.07394019525392638</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -1910,19 +1910,19 @@
         <v>84806</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>68751</v>
+        <v>70583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99891</v>
+        <v>101457</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09337315613933869</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07569658010763297</v>
+        <v>0.07771289765852124</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1099817013405835</v>
+        <v>0.1117057016685893</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -1931,19 +1931,19 @@
         <v>137730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>115557</v>
+        <v>116133</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164821</v>
+        <v>162560</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0730982888152208</v>
+        <v>0.07309828881522079</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06132990408575372</v>
+        <v>0.06163593678731261</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08747614245003749</v>
+        <v>0.08627623243224851</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>218763</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>192841</v>
+        <v>193707</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>244827</v>
+        <v>248467</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2241587560561945</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1975974132400886</v>
+        <v>0.1984850451672112</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2508651274327014</v>
+        <v>0.2545951037791648</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>420</v>
@@ -1981,19 +1981,19 @@
         <v>227491</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>206830</v>
+        <v>205642</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>251195</v>
+        <v>248904</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2504713454980908</v>
+        <v>0.2504713454980909</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2277238437234915</v>
+        <v>0.2264151803411872</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2765698476055658</v>
+        <v>0.2740481269558399</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>673</v>
@@ -2002,19 +2002,19 @@
         <v>446254</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>413876</v>
+        <v>412800</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>481221</v>
+        <v>483925</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2368424855529631</v>
+        <v>0.236842485552963</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2196584696853239</v>
+        <v>0.2190873128618021</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2554004981519357</v>
+        <v>0.2568361163340787</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>665808</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>637027</v>
+        <v>629656</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>699757</v>
+        <v>696300</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.682229485246764</v>
+        <v>0.6822294852467637</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6527387051168752</v>
+        <v>0.6451863439990445</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7170160439615555</v>
+        <v>0.7134739187283254</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>693</v>
@@ -2052,19 +2052,19 @@
         <v>530471</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>500131</v>
+        <v>502356</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>553766</v>
+        <v>554606</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5840582455781234</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5506532945461217</v>
+        <v>0.5531030602179893</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6097057993538922</v>
+        <v>0.6106310229505096</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1310</v>
@@ -2073,19 +2073,19 @@
         <v>1196279</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1152419</v>
+        <v>1150630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1236059</v>
+        <v>1237792</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.634906987737764</v>
+        <v>0.6349069877377639</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6116290591441143</v>
+        <v>0.6106793182547712</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6560197885287092</v>
+        <v>0.6569393071948801</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>251083</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>219840</v>
+        <v>219834</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>282630</v>
+        <v>282603</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07216448995266296</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06318471146509121</v>
+        <v>0.06318293201044185</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08123154668276654</v>
+        <v>0.08122377970295343</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>654</v>
@@ -2198,19 +2198,19 @@
         <v>444954</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>411355</v>
+        <v>412161</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>483458</v>
+        <v>480994</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1204476223482131</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.11135266540259</v>
+        <v>0.1115708109229488</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1308706457165828</v>
+        <v>0.130203686576456</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>923</v>
@@ -2219,19 +2219,19 @@
         <v>696037</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>652926</v>
+        <v>650587</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>745480</v>
+        <v>743394</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09702910378774814</v>
+        <v>0.09702910378774816</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09101934986913293</v>
+        <v>0.0906932846252736</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1039215888355149</v>
+        <v>0.1036308542113602</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>230675</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>201701</v>
+        <v>200177</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>264750</v>
+        <v>262531</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06629881527916537</v>
+        <v>0.06629881527916535</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05797142088563369</v>
+        <v>0.05753326015661189</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07609246741216229</v>
+        <v>0.07545483364653546</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>588</v>
@@ -2269,19 +2269,19 @@
         <v>392190</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>357894</v>
+        <v>362058</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>423048</v>
+        <v>428900</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1061646805824533</v>
+        <v>0.1061646805824534</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09688088465320777</v>
+        <v>0.09800802737372903</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1145179639611474</v>
+        <v>0.1161020413131587</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>834</v>
@@ -2290,19 +2290,19 @@
         <v>622865</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>581938</v>
+        <v>581222</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>673208</v>
+        <v>670493</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08682874564588559</v>
+        <v>0.08682874564588557</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08112353936357548</v>
+        <v>0.08102371574748242</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0938466998257402</v>
+        <v>0.09346817671937674</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>586209</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>538603</v>
+        <v>545141</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>635479</v>
+        <v>632516</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1684839888016422</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1548012133061407</v>
+        <v>0.1566803297856084</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1826445945189644</v>
+        <v>0.1817930836284514</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1295</v>
@@ -2340,19 +2340,19 @@
         <v>782406</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>742304</v>
+        <v>740990</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>829234</v>
+        <v>822479</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2117949555795342</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.200939410676073</v>
+        <v>0.2005839462974136</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2244711394061638</v>
+        <v>0.2226426068146376</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1935</v>
@@ -2361,19 +2361,19 @@
         <v>1368615</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1308022</v>
+        <v>1304295</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1433919</v>
+        <v>1428464</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1907880608517758</v>
+        <v>0.1907880608517757</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1823412182699989</v>
+        <v>0.1818216692338521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.199891544946996</v>
+        <v>0.1991311611748933</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2411351</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2359179</v>
+        <v>2354317</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2469915</v>
+        <v>2466034</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6930527059665295</v>
+        <v>0.6930527059665293</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6780579411045478</v>
+        <v>0.6766605529246891</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7098847955423603</v>
+        <v>0.7087692803628201</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2765</v>
@@ -2411,19 +2411,19 @@
         <v>2074617</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2019103</v>
+        <v>2020177</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2127664</v>
+        <v>2126540</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5615927414897993</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5465653198112396</v>
+        <v>0.5468559753625994</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5759523951611543</v>
+        <v>0.5756481575223862</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4949</v>
@@ -2432,19 +2432,19 @@
         <v>4485968</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4398054</v>
+        <v>4407070</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4559956</v>
+        <v>4562235</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6253540897145904</v>
+        <v>0.6253540897145905</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6130986422582043</v>
+        <v>0.614355569701627</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.635668227446135</v>
+        <v>0.635985917077643</v>
       </c>
     </row>
     <row r="28">
